--- a/static/xlsx/members_example.xlsx
+++ b/static/xlsx/members_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/you_pro/workspace/nutfes/nutfes-shift-app/static/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A99007E-C927-4B4E-87DA-4D8AB677F722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE17E1-9C6D-424F-9B2E-EF73CFD20368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>番号</t>
   </si>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>hoge@gmail.com</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>000-0000-0000</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -141,6 +137,46 @@
     <rPh sb="0" eb="1">
       <t>サンカ</t>
     </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hogeA@gmail.com</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hogeB@gmail.com</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hogeC@gmail.com</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hogeD@gmail.com</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hogeE@gmail.com</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00000002</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00000003</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00000004</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00000005</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -148,6 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -235,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,11 +310,67 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -284,6 +379,34 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -296,6 +419,200 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -331,260 +648,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4C7C3"/>
@@ -619,9 +682,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="実行委員全体-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -636,19 +699,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:K6" headerRowDxfId="7" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:K6" headerRowDxfId="16" totalsRowDxfId="15">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="番号" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="局" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="部門" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="部門長?" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="学年" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="課程" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="氏名" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ふりがな" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="連絡先" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="学籍番号" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="電話番号" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="番号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="局" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="部門" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="部門長?" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="学年" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="課程" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="氏名" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ふりがな" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="連絡先" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="学籍番号" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="電話番号" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="実行委員全体-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,7 +1021,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -970,7 +1033,8 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="10" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="16" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" style="14" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="14.5" style="2"/>
@@ -1004,7 +1068,7 @@
       <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -1036,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="6" t="s">
@@ -1052,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1072,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
@@ -1082,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1119,19 +1183,19 @@
         <v>6</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1145,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -1155,19 +1219,19 @@
         <v>6</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1193,19 +1257,19 @@
         <v>6</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1214,31 +1278,54 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="E1:J2 E3:H6 B1:C6">
-    <cfRule type="containsBlanks" dxfId="17" priority="5">
+    <cfRule type="containsBlanks" dxfId="21" priority="9">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J3">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="containsBlanks" dxfId="20" priority="8">
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:J4">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(I4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(I5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J6">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+  <conditionalFormatting sqref="I6">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(I6))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(J3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(J4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(J6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(J5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2 J3:J6" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
